--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2619.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2619.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7835920758830689</v>
+        <v>1.267433524131775</v>
       </c>
       <c r="B1">
-        <v>1.602814048457453</v>
+        <v>2.177060842514038</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.586565017700195</v>
       </c>
       <c r="D1">
-        <v>1.772332089201154</v>
+        <v>3.069464683532715</v>
       </c>
       <c r="E1">
-        <v>0.9161128923273884</v>
+        <v>1.373181462287903</v>
       </c>
     </row>
   </sheetData>
